--- a/aoiConditions/train2Block13.xlsx
+++ b/aoiConditions/train2Block13.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
   </si>
 </sst>
 </file>
